--- a/static/MIDES_PANSON.xlsx
+++ b/static/MIDES_PANSON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\iain\panson\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CFF757-759B-794E-AC28-0D49CE165C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9CD9D-F8F2-44A1-8D43-0F3A0D32A7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23180" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29535" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>ES (Spain/Italy/Swiss)</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>PANSON MIDES</t>
+  </si>
+  <si>
+    <t>panson</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mm-c</t>
+  </si>
+  <si>
+    <t>mm-d</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>uk</t>
   </si>
 </sst>
 </file>
@@ -183,9 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -492,24 +516,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -532,658 +556,681 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>38</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>38</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>12.1</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>-1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>39</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>39</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>12.41</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>12.73</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>41</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>41</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>13.05</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>42</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>42</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>13.37</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1.3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>43</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>43</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>13.69</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>1.7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>44</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>14.01</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>45</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>45</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>14.32</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>46</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>46</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>14.64</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>2.6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>47</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>47</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>14.96</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>2.9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>48</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>48</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>15.28</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>3.2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>49</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>49</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>15.6</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>3.6</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>50</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>15.92</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>3.9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>51</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>51</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>16.23</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>4.2</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>52</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>52</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>16.55</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4.5</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>13</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>53</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>53</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>16.87</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>4.8</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>54</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>54</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>17.190000000000001</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>5.2</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>55</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>55</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>17.510000000000002</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>5.5</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>56</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>56</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>17.829999999999998</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>5.8</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>17</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>57</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>57</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>18.14</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>6.1</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>18</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>58</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>58</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>18.46</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>6.4</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>19</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>59</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>59</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>18.78</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>6.8</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>60</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>60</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>19.100000000000001</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>7.1</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>21</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>61</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>61</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>19.420000000000002</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>7.4</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>62</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>62</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>19.739999999999998</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>7.7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>23</v>
-      </c>
-      <c r="C27">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>63</v>
-      </c>
-      <c r="E27">
-        <v>20.05</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>20.05</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>64</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>64</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>20.37</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>8.3000000000000007</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>65</v>
-      </c>
-      <c r="D29">
-        <v>65</v>
-      </c>
-      <c r="E29">
-        <v>20.69</v>
-      </c>
-      <c r="F29">
-        <v>8.6999999999999993</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30">
-        <v>21.01</v>
+        <v>20.69</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31">
-        <v>21.33</v>
+        <v>21.01</v>
       </c>
       <c r="F31">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32">
-        <v>21.65</v>
+        <v>21.33</v>
       </c>
       <c r="F32">
-        <v>9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>68</v>
+      </c>
+      <c r="E33">
+        <v>21.65</v>
+      </c>
+      <c r="F33">
+        <v>9.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>29</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>69</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>69</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>21.96</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>9.9</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>31</v>
       </c>
     </row>

--- a/static/MIDES_PANSON.xlsx
+++ b/static/MIDES_PANSON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\iain\panson\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9CD9D-F8F2-44A1-8D43-0F3A0D32A7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F77E1AE-4144-40E7-BD44-09B22E2D8C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30225" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
-  <si>
-    <t>ES (Spain/Italy/Swiss)</t>
-  </si>
-  <si>
-    <t>EU (ISO 8653)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Ring Circumference (mm)</t>
   </si>
@@ -34,90 +28,15 @@
     <t>Ring Diameter (mm)</t>
   </si>
   <si>
-    <t>US/Canada</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Z+</t>
-  </si>
-  <si>
     <t>XS</t>
   </si>
   <si>
@@ -145,7 +64,13 @@
     <t>us</t>
   </si>
   <si>
-    <t>uk</t>
+    <t>ES mides</t>
+  </si>
+  <si>
+    <t>EU sizes</t>
+  </si>
+  <si>
+    <t>USA sizes</t>
   </si>
 </sst>
 </file>
@@ -209,7 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -519,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,49 +460,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -595,9 +516,6 @@
       <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -615,9 +533,6 @@
       <c r="F4">
         <v>0.4</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -635,9 +550,6 @@
       <c r="F5">
         <v>0.7</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -655,9 +567,6 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -675,9 +584,6 @@
       <c r="F7">
         <v>1.3</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -695,9 +601,6 @@
       <c r="F8">
         <v>1.7</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -715,9 +618,6 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -735,9 +635,6 @@
       <c r="F10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -755,9 +652,6 @@
       <c r="F11">
         <v>2.6</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -775,13 +669,10 @@
       <c r="F12">
         <v>2.9</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -797,9 +688,6 @@
       </c>
       <c r="F13">
         <v>3.2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,9 +706,6 @@
       <c r="F14">
         <v>3.6</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -838,9 +723,6 @@
       <c r="F15">
         <v>3.9</v>
       </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -858,13 +740,10 @@
       <c r="F16">
         <v>4.2</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -881,11 +760,8 @@
       <c r="F17">
         <v>4.5</v>
       </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>13</v>
       </c>
@@ -901,11 +777,8 @@
       <c r="F18">
         <v>4.8</v>
       </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>14</v>
       </c>
@@ -921,11 +794,8 @@
       <c r="F19">
         <v>5.2</v>
       </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>15</v>
       </c>
@@ -941,13 +811,10 @@
       <c r="F20">
         <v>5.5</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -964,11 +831,8 @@
       <c r="F21">
         <v>5.8</v>
       </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>17</v>
       </c>
@@ -984,11 +848,8 @@
       <c r="F22">
         <v>6.1</v>
       </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18</v>
       </c>
@@ -1004,11 +865,8 @@
       <c r="F23">
         <v>6.4</v>
       </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>19</v>
       </c>
@@ -1024,13 +882,10 @@
       <c r="F24">
         <v>6.8</v>
       </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -1047,11 +902,8 @@
       <c r="F25">
         <v>7.1</v>
       </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>21</v>
       </c>
@@ -1067,11 +919,8 @@
       <c r="F26">
         <v>7.4</v>
       </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>22</v>
       </c>
@@ -1087,11 +936,8 @@
       <c r="F27">
         <v>7.7</v>
       </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>23</v>
       </c>
@@ -1107,13 +953,10 @@
       <c r="F28">
         <v>8</v>
       </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -1130,11 +973,8 @@
       <c r="F29">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>25</v>
       </c>
@@ -1150,11 +990,8 @@
       <c r="F30">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>26</v>
       </c>
@@ -1170,11 +1007,8 @@
       <c r="F31">
         <v>9</v>
       </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>27</v>
       </c>
@@ -1190,11 +1024,8 @@
       <c r="F32">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>28</v>
       </c>
@@ -1210,11 +1041,8 @@
       <c r="F33">
         <v>9.6</v>
       </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>29</v>
       </c>
@@ -1229,9 +1057,6 @@
       </c>
       <c r="F34">
         <v>9.9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
